--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.652000000000001</v>
+        <v>7.107000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -505,7 +505,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.358</v>
+        <v>-13.155</v>
       </c>
       <c r="D5" t="n">
         <v>-8.16</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.542</v>
+        <v>-21.532</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.182</v>
+        <v>-12.891</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.196</v>
+        <v>-21.464</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.125999999999999</v>
+        <v>7.142</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.302</v>
+        <v>-21.303</v>
       </c>
       <c r="B12" t="n">
-        <v>5.826000000000001</v>
+        <v>6.304</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.428</v>
+        <v>-11.214</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.472</v>
+        <v>-12.981</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -642,10 +642,10 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.66</v>
+        <v>5.01</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.862</v>
+        <v>-13.132</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.084000000000001</v>
+        <v>4.809</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.724</v>
+        <v>-21.839</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.186</v>
+        <v>-13.122</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.814</v>
+        <v>-21.779</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.202</v>
+        <v>-12.181</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.991999999999999</v>
+        <v>6.476999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.134</v>
+        <v>5.520999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>4.91</v>
+        <v>4.737</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.312</v>
+        <v>6.642999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.618</v>
+        <v>-12.564</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.38</v>
+        <v>-13.173</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.63</v>
+        <v>-21.3</v>
       </c>
       <c r="B37" t="n">
-        <v>7.157999999999999</v>
+        <v>6.101000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.528</v>
+        <v>-11.859</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1006,10 +1006,10 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>7.331999999999999</v>
+        <v>7.340999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.012</v>
+        <v>-12.758</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>4.966000000000001</v>
+        <v>4.846</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1135,7 +1135,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.446</v>
+        <v>-13.026</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.584000000000001</v>
+        <v>6.132</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-12.008</v>
+        <v>-11.951</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.518</v>
+        <v>-21.767</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.38</v>
+        <v>-12.266</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>7.124000000000001</v>
+        <v>6.348000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.576</v>
+        <v>-11.065</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.42</v>
+        <v>-21.682</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.92</v>
+        <v>6.792</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.15</v>
+        <v>-21.042</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.274</v>
+        <v>-20.909</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.282</v>
+        <v>-21.128</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.844</v>
+        <v>-20.887</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.504</v>
+        <v>-21.501</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.46</v>
+        <v>-21.843</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.554</v>
+        <v>-21.67</v>
       </c>
       <c r="B84" t="n">
-        <v>5.822000000000001</v>
+        <v>6.203</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.318</v>
+        <v>-12.344</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>4.578</v>
+        <v>5.126</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.876</v>
+        <v>-13.31</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1667,7 +1667,7 @@
         <v>5.44</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.728</v>
+        <v>-13.313</v>
       </c>
       <c r="D88" t="n">
         <v>-8.470000000000001</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.006</v>
+        <v>4.55</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.18</v>
+        <v>-13.317</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.488</v>
+        <v>6.077000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,10 +1762,10 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>7.26</v>
+        <v>7.145999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.522</v>
+        <v>-11.799</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>6.568000000000001</v>
+        <v>7.324000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.976000000000001</v>
+        <v>5.894</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.904</v>
+        <v>-21.851</v>
       </c>
       <c r="B101" t="n">
-        <v>4.968000000000001</v>
+        <v>5.427000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.16</v>
+        <v>-20.576</v>
       </c>
       <c r="B102" t="n">
-        <v>7.039999999999999</v>
+        <v>7.222000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.838</v>
+        <v>-12.653</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
